--- a/analisis_faltas.xlsx
+++ b/analisis_faltas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,388 +456,2317 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>jornada</t>
+          <t>competicion</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>partidos</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
-        <v>28435</v>
+        <v>25606</v>
       </c>
       <c r="D2" t="n">
-        <v>12794</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9</v>
+        <v>9766</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Atletico</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
-        <v>31971</v>
+        <v>25628</v>
       </c>
       <c r="D3" t="n">
-        <v>14698</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9</v>
+        <v>12262</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
-        <v>28283</v>
+        <v>25739</v>
       </c>
       <c r="D4" t="n">
-        <v>7352</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
+        <v>11050</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>30579</v>
+        <v>25663</v>
       </c>
       <c r="D5" t="n">
-        <v>12202</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9</v>
+        <v>10005</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Deportivo Alaves</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C6" t="n">
-        <v>26025</v>
+        <v>24947</v>
       </c>
       <c r="D6" t="n">
-        <v>13068</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9</v>
+        <v>9030</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
-        <v>28014</v>
+        <v>31527</v>
       </c>
       <c r="D7" t="n">
-        <v>13624</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9</v>
+        <v>13852</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Atletico</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C8" t="n">
-        <v>22935</v>
+        <v>35252</v>
       </c>
       <c r="D8" t="n">
-        <v>9873</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
+        <v>15540</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>30926</v>
+        <v>21846</v>
       </c>
       <c r="D9" t="n">
-        <v>10105</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9</v>
+        <v>8966</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C10" t="n">
-        <v>29196</v>
+        <v>25379</v>
       </c>
       <c r="D10" t="n">
-        <v>10241</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
+        <v>10692</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
-        <v>27881</v>
+        <v>31576</v>
       </c>
       <c r="D11" t="n">
-        <v>12398</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
+        <v>8157</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C12" t="n">
-        <v>28667</v>
+        <v>24641</v>
       </c>
       <c r="D12" t="n">
-        <v>12636</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
+        <v>5926</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>26810</v>
+        <v>20442</v>
       </c>
       <c r="D13" t="n">
-        <v>11832</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9</v>
+        <v>9257</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C14" t="n">
-        <v>26167</v>
+        <v>24671</v>
       </c>
       <c r="D14" t="n">
-        <v>11025</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
+        <v>7323</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
-        <v>28921</v>
+        <v>22853</v>
       </c>
       <c r="D15" t="n">
-        <v>11047</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
+        <v>6659</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
-        <v>32349</v>
+        <v>23025</v>
       </c>
       <c r="D16" t="n">
-        <v>10349</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9</v>
+        <v>7725</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="n">
-        <v>26891</v>
+        <v>25816</v>
       </c>
       <c r="D17" t="n">
-        <v>8378</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
+        <v>11084</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>27781</v>
+        <v>27147</v>
       </c>
       <c r="D18" t="n">
-        <v>12844</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
+        <v>11762</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C19" t="n">
-        <v>26815</v>
+        <v>24845</v>
       </c>
       <c r="D19" t="n">
-        <v>9274</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
+        <v>10239</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>28878</v>
+        <v>26067</v>
       </c>
       <c r="D20" t="n">
-        <v>13034</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9</v>
+        <v>9130</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>110</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24535</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10834</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>107</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34324</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13870</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>86</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26573</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9716</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>96</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25608</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10203</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>85</v>
+      </c>
+      <c r="C25" t="n">
+        <v>26334</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11193</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Deportivo Alaves</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>149</v>
+      </c>
+      <c r="C26" t="n">
+        <v>28618</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13827</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23808</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12085</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>121</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24645</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12902</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>133</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31108</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15046</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>87</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25949</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13509</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FC Heidenheim</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>83</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21589</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10460</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>94</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24520</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9020</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24015</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9856</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>103</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26106</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11180</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>101</v>
+      </c>
+      <c r="C35" t="n">
+        <v>24204</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11955</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>162</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25328</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10805</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>107</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34424</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11675</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>70</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22527</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10226</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>21625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10188</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>86</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26015</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9023</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>98</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26408</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12785</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>92</v>
+      </c>
+      <c r="C42" t="n">
+        <v>27887</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8439</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>115</v>
+      </c>
+      <c r="C43" t="n">
+        <v>32410</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11557</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>94</v>
+      </c>
+      <c r="C44" t="n">
+        <v>25142</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9979</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>96</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25590</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13131</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>87</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25176</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12207</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>129</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31164</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14135</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>90</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25354</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12116</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>125</v>
+      </c>
+      <c r="C49" t="n">
+        <v>24148</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8437</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>57</v>
+      </c>
+      <c r="C50" t="n">
+        <v>23525</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8136</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>94</v>
+      </c>
+      <c r="C51" t="n">
+        <v>27235</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8904</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>95</v>
+      </c>
+      <c r="C52" t="n">
+        <v>27060</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9472</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>106</v>
+      </c>
+      <c r="C53" t="n">
+        <v>24675</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9160</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>83</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20627</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8907</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>120</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31327</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13584</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C56" t="n">
+        <v>29114</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7811</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>88</v>
+      </c>
+      <c r="C57" t="n">
+        <v>27384</v>
+      </c>
+      <c r="D57" t="n">
+        <v>11115</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>97</v>
+      </c>
+      <c r="C58" t="n">
+        <v>26679</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8659</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>104</v>
+      </c>
+      <c r="C59" t="n">
+        <v>23938</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7734</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>106</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25230</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11237</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>115</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25559</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11737</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>88</v>
+      </c>
+      <c r="C62" t="n">
+        <v>26438</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12792</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>95</v>
+      </c>
+      <c r="C63" t="n">
+        <v>26040</v>
+      </c>
+      <c r="D63" t="n">
+        <v>11695</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>86</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25522</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10606</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>77</v>
+      </c>
+      <c r="C65" t="n">
+        <v>26813</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11206</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>93</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25859</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13185</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>128</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29621</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12731</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>71</v>
+      </c>
+      <c r="C68" t="n">
+        <v>28515</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7426</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Parma Calcio 1913</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>85</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25839</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11729</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RBL</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="n">
+        <v>22538</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7585</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>152</v>
+      </c>
+      <c r="C71" t="n">
+        <v>28837</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12142</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>122</v>
+      </c>
+      <c r="C72" t="n">
+        <v>31732</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12247</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>92</v>
+      </c>
+      <c r="C73" t="n">
+        <v>36094</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11837</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>123</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30358</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9763</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>140</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30374</v>
+      </c>
+      <c r="D75" t="n">
+        <v>14158</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>79</v>
+      </c>
+      <c r="C76" t="n">
+        <v>27264</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12719</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>106</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25468</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10918</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>88</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25772</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8306</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Saint-Etienne</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>112</v>
+      </c>
+      <c r="C79" t="n">
+        <v>25164</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12255</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>130</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30070</v>
+      </c>
+      <c r="D80" t="n">
+        <v>11276</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>94</v>
+      </c>
+      <c r="C81" t="n">
+        <v>26253</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10163</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>73</v>
+      </c>
+      <c r="C82" t="n">
+        <v>23411</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10596</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>98</v>
+      </c>
+      <c r="C83" t="n">
+        <v>25699</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11140</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>67</v>
+      </c>
+      <c r="C84" t="n">
+        <v>22753</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7548</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>80</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25660</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10621</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>94</v>
+      </c>
+      <c r="C86" t="n">
+        <v>26040</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7544</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>103</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26542</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11305</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>113</v>
+      </c>
+      <c r="C88" t="n">
+        <v>24752</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11592</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>98</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22030</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10506</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>109</v>
+      </c>
+      <c r="C90" t="n">
+        <v>32092</v>
+      </c>
+      <c r="D90" t="n">
+        <v>14299</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>87</v>
+      </c>
+      <c r="C91" t="n">
+        <v>24593</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11747</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>94</v>
+      </c>
+      <c r="C92" t="n">
+        <v>24849</v>
+      </c>
+      <c r="D92" t="n">
+        <v>12494</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>Villarreal</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>94</v>
-      </c>
-      <c r="C21" t="n">
-        <v>30467</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14789</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9</v>
+      <c r="B93" t="n">
+        <v>111</v>
+      </c>
+      <c r="C93" t="n">
+        <v>32858</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15596</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>67</v>
+      </c>
+      <c r="C94" t="n">
+        <v>23051</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9629</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>118</v>
+      </c>
+      <c r="C95" t="n">
+        <v>26835</v>
+      </c>
+      <c r="D95" t="n">
+        <v>12389</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>92</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20742</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10139</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>110</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25244</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11863</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/analisis_faltas.xlsx
+++ b/analisis_faltas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>partidos</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>x_duelos_defensivos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C2" t="n">
-        <v>25606</v>
+        <v>32506</v>
       </c>
       <c r="D2" t="n">
-        <v>9766</v>
+        <v>11957</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -486,287 +496,359 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60.21428571428572</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.84169491525424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C3" t="n">
-        <v>25628</v>
+        <v>31639</v>
       </c>
       <c r="D3" t="n">
-        <v>12262</v>
+        <v>14690</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.5735368956743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C4" t="n">
-        <v>25739</v>
+        <v>36820</v>
       </c>
       <c r="D4" t="n">
-        <v>11050</v>
+        <v>14609</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>51.71785714285714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37.71070663811563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C5" t="n">
-        <v>25663</v>
+        <v>29866</v>
       </c>
       <c r="D5" t="n">
-        <v>10005</v>
+        <v>11750</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>56.8037037037037</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32.7764367816092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
-        <v>24947</v>
+        <v>35849</v>
       </c>
       <c r="D6" t="n">
-        <v>9030</v>
+        <v>11557</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>52.68191489361703</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38.53429487179488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
-        <v>31527</v>
+        <v>35264</v>
       </c>
       <c r="D7" t="n">
-        <v>13852</v>
+        <v>13112</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>52.25445544554455</v>
+      </c>
+      <c r="H7" t="n">
+        <v>34.34716981132075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Atletico</t>
+          <t>Almere City FC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>35252</v>
+        <v>35618</v>
       </c>
       <c r="D8" t="n">
-        <v>15540</v>
+        <v>16584</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>54.86333333333334</v>
+      </c>
+      <c r="H8" t="n">
+        <v>34.11154855643045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>21846</v>
+        <v>32274</v>
       </c>
       <c r="D9" t="n">
-        <v>8966</v>
+        <v>15705</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>55.36581196581196</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.43109048723898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
-        <v>25379</v>
+        <v>33200</v>
       </c>
       <c r="D10" t="n">
-        <v>10692</v>
+        <v>12440</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54.95671641791045</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34.11829573934838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n">
-        <v>31576</v>
+        <v>30461</v>
       </c>
       <c r="D11" t="n">
-        <v>8157</v>
+        <v>11489</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49.61209677419355</v>
+      </c>
+      <c r="H11" t="n">
+        <v>34.1968660968661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bayern</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C12" t="n">
-        <v>24641</v>
+        <v>31990</v>
       </c>
       <c r="D12" t="n">
-        <v>5926</v>
+        <v>13332</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>58.68125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>37.48818897637796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C13" t="n">
-        <v>20442</v>
+        <v>31845</v>
       </c>
       <c r="D13" t="n">
-        <v>9257</v>
+        <v>12438</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>53.89262295081967</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34.63693693693694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C14" t="n">
-        <v>24671</v>
+        <v>35561</v>
       </c>
       <c r="D14" t="n">
-        <v>7323</v>
+        <v>12841</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -774,383 +856,479 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>57.34812030075188</v>
+      </c>
+      <c r="H14" t="n">
+        <v>38.69891304347826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n">
-        <v>22853</v>
+        <v>38191</v>
       </c>
       <c r="D15" t="n">
-        <v>6659</v>
+        <v>16080</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>53.002</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35.256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Borussia M.Gladbach</t>
+          <t>Atletico</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C16" t="n">
-        <v>23025</v>
+        <v>41706</v>
       </c>
       <c r="D16" t="n">
-        <v>7725</v>
+        <v>17722</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55.55491803278689</v>
+      </c>
+      <c r="H16" t="n">
+        <v>34.93467933491686</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C17" t="n">
-        <v>25816</v>
+        <v>28516</v>
       </c>
       <c r="D17" t="n">
-        <v>11084</v>
+        <v>13124</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>58.56868686868687</v>
+      </c>
+      <c r="H17" t="n">
+        <v>34.98650306748466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C18" t="n">
-        <v>27147</v>
+        <v>31999</v>
       </c>
       <c r="D18" t="n">
-        <v>11762</v>
+        <v>14117</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>52.77983193277311</v>
+      </c>
+      <c r="H18" t="n">
+        <v>33.62078521939954</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="n">
-        <v>24845</v>
+        <v>37781</v>
       </c>
       <c r="D19" t="n">
-        <v>10239</v>
+        <v>9697</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60.02264150943396</v>
+      </c>
+      <c r="H19" t="n">
+        <v>39.86123595505618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bayern</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="n">
-        <v>26067</v>
+        <v>31602</v>
       </c>
       <c r="D20" t="n">
-        <v>9130</v>
+        <v>7300</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60.04545454545455</v>
+      </c>
+      <c r="H20" t="n">
+        <v>39.7979020979021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C21" t="n">
-        <v>24535</v>
+        <v>29502</v>
       </c>
       <c r="D21" t="n">
-        <v>10834</v>
+        <v>8640</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>60.54183673469388</v>
+      </c>
+      <c r="H21" t="n">
+        <v>44.32011331444759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C22" t="n">
-        <v>34324</v>
+        <v>30004</v>
       </c>
       <c r="D22" t="n">
-        <v>13870</v>
+        <v>9367</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>55.14538461538461</v>
+      </c>
+      <c r="H22" t="n">
+        <v>36.04948186528497</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="C23" t="n">
-        <v>26573</v>
+        <v>3425</v>
       </c>
       <c r="D23" t="n">
-        <v>9716</v>
+        <v>1806</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>57.69217877094972</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32.70433962264151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C24" t="n">
-        <v>25608</v>
+        <v>29695</v>
       </c>
       <c r="D24" t="n">
-        <v>10203</v>
+        <v>14911</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>54.06967213114754</v>
+      </c>
+      <c r="H24" t="n">
+        <v>35.66297229219144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C25" t="n">
-        <v>26334</v>
+        <v>27037</v>
       </c>
       <c r="D25" t="n">
-        <v>11193</v>
+        <v>13113</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>53.13916666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>35.4904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Deportivo Alaves</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C26" t="n">
-        <v>28618</v>
+        <v>33038</v>
       </c>
       <c r="D26" t="n">
-        <v>13827</v>
+        <v>15981</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>56.29710144927536</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36.51402298850575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C27" t="n">
-        <v>23808</v>
+        <v>30854</v>
       </c>
       <c r="D27" t="n">
-        <v>12085</v>
+        <v>8933</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>57.91164383561644</v>
+      </c>
+      <c r="H27" t="n">
+        <v>37.20172839506173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C28" t="n">
-        <v>24645</v>
+        <v>29576</v>
       </c>
       <c r="D28" t="n">
-        <v>12902</v>
+        <v>8286</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>56.38645833333334</v>
+      </c>
+      <c r="H28" t="n">
+        <v>37.2900641025641</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C29" t="n">
-        <v>31108</v>
+        <v>29712</v>
       </c>
       <c r="D29" t="n">
-        <v>15046</v>
+        <v>10631</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>54.96842105263158</v>
+      </c>
+      <c r="H29" t="n">
+        <v>32.06209677419355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C30" t="n">
-        <v>25949</v>
+        <v>32676</v>
       </c>
       <c r="D30" t="n">
-        <v>13509</v>
+        <v>14773</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1158,95 +1336,119 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>54.41970802919708</v>
+      </c>
+      <c r="H30" t="n">
+        <v>35.98539325842697</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C31" t="n">
-        <v>21589</v>
+        <v>31670</v>
       </c>
       <c r="D31" t="n">
-        <v>10460</v>
+        <v>10719</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>58.85827338129496</v>
+      </c>
+      <c r="H31" t="n">
+        <v>39.29887640449438</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>24520</v>
+        <v>33859</v>
       </c>
       <c r="D32" t="n">
-        <v>9020</v>
+        <v>14561</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>55.03676470588236</v>
+      </c>
+      <c r="H32" t="n">
+        <v>34.91125654450262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C33" t="n">
-        <v>24015</v>
+        <v>31332</v>
       </c>
       <c r="D33" t="n">
-        <v>9856</v>
+        <v>12542</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>54.85390625</v>
+      </c>
+      <c r="H33" t="n">
+        <v>37.78074074074074</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C34" t="n">
-        <v>26106</v>
+        <v>32975</v>
       </c>
       <c r="D34" t="n">
-        <v>11180</v>
+        <v>11862</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1254,167 +1456,209 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>58.73211009174312</v>
+      </c>
+      <c r="H34" t="n">
+        <v>37.59084158415842</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C35" t="n">
-        <v>24204</v>
+        <v>3395</v>
       </c>
       <c r="D35" t="n">
-        <v>11955</v>
+        <v>1973</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>55.98543046357615</v>
+      </c>
+      <c r="H35" t="n">
+        <v>33.96150712830957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C36" t="n">
-        <v>25328</v>
+        <v>3540</v>
       </c>
       <c r="D36" t="n">
-        <v>10805</v>
+        <v>2235</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>58.76166666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>35.37782705099778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C37" t="n">
-        <v>34424</v>
+        <v>34003</v>
       </c>
       <c r="D37" t="n">
-        <v>11675</v>
+        <v>15807</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G37" t="n">
+        <v>54.83355263157895</v>
+      </c>
+      <c r="H37" t="n">
+        <v>33.79793281653747</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C38" t="n">
-        <v>22527</v>
+        <v>3500</v>
       </c>
       <c r="D38" t="n">
-        <v>10226</v>
+        <v>1760</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>55.36513157894737</v>
+      </c>
+      <c r="H38" t="n">
+        <v>35.56765957446808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Casa Pia AC</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C39" t="n">
-        <v>21625</v>
+        <v>29705</v>
       </c>
       <c r="D39" t="n">
-        <v>10188</v>
+        <v>13768</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>54.48982035928143</v>
+      </c>
+      <c r="H39" t="n">
+        <v>33.97150127226463</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C40" t="n">
-        <v>26015</v>
+        <v>40860</v>
       </c>
       <c r="D40" t="n">
-        <v>9023</v>
+        <v>16076</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G40" t="n">
+        <v>56.66838235294117</v>
+      </c>
+      <c r="H40" t="n">
+        <v>35.17482517482517</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C41" t="n">
-        <v>26408</v>
+        <v>33160</v>
       </c>
       <c r="D41" t="n">
-        <v>12785</v>
+        <v>12224</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1422,23 +1666,29 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>53.72410714285714</v>
+      </c>
+      <c r="H41" t="n">
+        <v>35.56527777777778</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C42" t="n">
-        <v>27887</v>
+        <v>34758</v>
       </c>
       <c r="D42" t="n">
-        <v>8439</v>
+        <v>13285</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1446,239 +1696,299 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G42" t="n">
+        <v>53.47923076923077</v>
+      </c>
+      <c r="H42" t="n">
+        <v>35.89801324503311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="C43" t="n">
-        <v>32410</v>
+        <v>3457</v>
       </c>
       <c r="D43" t="n">
-        <v>11557</v>
+        <v>1722</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>57.5728476821192</v>
+      </c>
+      <c r="H43" t="n">
+        <v>35.98047722342733</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C44" t="n">
-        <v>25142</v>
+        <v>32384</v>
       </c>
       <c r="D44" t="n">
-        <v>9979</v>
+        <v>14086</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>57.04454545454545</v>
+      </c>
+      <c r="H44" t="n">
+        <v>37.22536687631028</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Deportivo Alaves</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="C45" t="n">
-        <v>25590</v>
+        <v>34162</v>
       </c>
       <c r="D45" t="n">
-        <v>13131</v>
+        <v>15914</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>53.68131868131868</v>
+      </c>
+      <c r="H45" t="n">
+        <v>33.29713114754098</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="C46" t="n">
-        <v>25176</v>
+        <v>3409</v>
       </c>
       <c r="D46" t="n">
-        <v>12207</v>
+        <v>1773</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>56.69754601226995</v>
+      </c>
+      <c r="H46" t="n">
+        <v>34.04805914972273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C47" t="n">
-        <v>31164</v>
+        <v>30216</v>
       </c>
       <c r="D47" t="n">
-        <v>14135</v>
+        <v>14177</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>53.03037974683544</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32.8765243902439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C48" t="n">
-        <v>25354</v>
+        <v>34099</v>
       </c>
       <c r="D48" t="n">
-        <v>12116</v>
+        <v>18258</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G48" t="n">
+        <v>56.74939759036145</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32.71852678571428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C49" t="n">
-        <v>24148</v>
+        <v>37562</v>
       </c>
       <c r="D49" t="n">
-        <v>8437</v>
+        <v>18611</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G49" t="n">
+        <v>50.70434782608695</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30.01350210970464</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C50" t="n">
-        <v>23525</v>
+        <v>31279</v>
       </c>
       <c r="D50" t="n">
-        <v>8136</v>
+        <v>15341</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G50" t="n">
+        <v>52.47181208053691</v>
+      </c>
+      <c r="H50" t="n">
+        <v>32.91633237822349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Estrela da Amadora</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C51" t="n">
-        <v>27235</v>
+        <v>28862</v>
       </c>
       <c r="D51" t="n">
-        <v>8904</v>
+        <v>11221</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>52.21167883211679</v>
+      </c>
+      <c r="H51" t="n">
+        <v>33.8948905109489</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C52" t="n">
-        <v>27060</v>
+        <v>32734</v>
       </c>
       <c r="D52" t="n">
-        <v>9472</v>
+        <v>17075</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1686,215 +1996,269 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
+        <v>52.90176991150442</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32.59922279792746</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C53" t="n">
-        <v>24675</v>
+        <v>34379</v>
       </c>
       <c r="D53" t="n">
-        <v>9160</v>
+        <v>13629</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G53" t="n">
+        <v>53.12706766917293</v>
+      </c>
+      <c r="H53" t="n">
+        <v>32.48571428571429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Groningen</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C54" t="n">
-        <v>20627</v>
+        <v>34903</v>
       </c>
       <c r="D54" t="n">
-        <v>8907</v>
+        <v>13764</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G54" t="n">
+        <v>50.87105263157895</v>
+      </c>
+      <c r="H54" t="n">
+        <v>34.53204545454545</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C55" t="n">
-        <v>31327</v>
+        <v>27550</v>
       </c>
       <c r="D55" t="n">
-        <v>13584</v>
+        <v>12674</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G55" t="n">
+        <v>54.21834862385321</v>
+      </c>
+      <c r="H55" t="n">
+        <v>32.50637755102041</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C56" t="n">
-        <v>29114</v>
+        <v>33156</v>
       </c>
       <c r="D56" t="n">
-        <v>7811</v>
+        <v>13989</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G56" t="n">
+        <v>57.50210526315789</v>
+      </c>
+      <c r="H56" t="n">
+        <v>37.00887850467289</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C57" t="n">
-        <v>27384</v>
+        <v>30000</v>
       </c>
       <c r="D57" t="n">
-        <v>11115</v>
+        <v>11148</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G57" t="n">
+        <v>54.93467741935483</v>
+      </c>
+      <c r="H57" t="n">
+        <v>33.62834101382489</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="C58" t="n">
-        <v>26679</v>
+        <v>29840</v>
       </c>
       <c r="D58" t="n">
-        <v>8659</v>
+        <v>14233</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>51.48157894736842</v>
+      </c>
+      <c r="H58" t="n">
+        <v>33.36594202898551</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C59" t="n">
-        <v>23938</v>
+        <v>29668</v>
       </c>
       <c r="D59" t="n">
-        <v>7734</v>
+        <v>11368</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G59" t="n">
+        <v>53.41617647058824</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36.97412398921833</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" t="n">
-        <v>25230</v>
+        <v>35805</v>
       </c>
       <c r="D60" t="n">
-        <v>11237</v>
+        <v>10534</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G60" t="n">
+        <v>56.13551401869159</v>
+      </c>
+      <c r="H60" t="n">
+        <v>39.30051282051282</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C61" t="n">
-        <v>25559</v>
+        <v>34335</v>
       </c>
       <c r="D61" t="n">
-        <v>11737</v>
+        <v>12998</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1902,71 +2266,89 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G61" t="n">
+        <v>54.54573643410853</v>
+      </c>
+      <c r="H61" t="n">
+        <v>33.68275</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C62" t="n">
-        <v>26438</v>
+        <v>34901</v>
       </c>
       <c r="D62" t="n">
-        <v>12792</v>
+        <v>15947</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G62" t="n">
+        <v>55.44695652173912</v>
+      </c>
+      <c r="H62" t="n">
+        <v>32.55196078431373</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>26040</v>
+        <v>30932</v>
       </c>
       <c r="D63" t="n">
-        <v>11695</v>
+        <v>12283</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G63" t="n">
+        <v>55.22602739726027</v>
+      </c>
+      <c r="H63" t="n">
+        <v>36.03699059561129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C64" t="n">
-        <v>25522</v>
+        <v>33246</v>
       </c>
       <c r="D64" t="n">
-        <v>10606</v>
+        <v>13113</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1974,335 +2356,419 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>56.02456140350878</v>
+      </c>
+      <c r="H64" t="n">
+        <v>35.20390625</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C65" t="n">
-        <v>26813</v>
+        <v>29577</v>
       </c>
       <c r="D65" t="n">
-        <v>11206</v>
+        <v>10019</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>55.98529411764706</v>
+      </c>
+      <c r="H65" t="n">
+        <v>36.63883495145631</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C66" t="n">
-        <v>25859</v>
+        <v>28709</v>
       </c>
       <c r="D66" t="n">
-        <v>13185</v>
+        <v>12947</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G66" t="n">
+        <v>51.78644067796611</v>
+      </c>
+      <c r="H66" t="n">
+        <v>33.64545454545455</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C67" t="n">
-        <v>29621</v>
+        <v>33468</v>
       </c>
       <c r="D67" t="n">
-        <v>12731</v>
+        <v>16728</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G67" t="n">
+        <v>54.80869565217392</v>
+      </c>
+      <c r="H67" t="n">
+        <v>36.2158024691358</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="C68" t="n">
-        <v>28515</v>
+        <v>31175</v>
       </c>
       <c r="D68" t="n">
-        <v>7426</v>
+        <v>12688</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G68" t="n">
+        <v>57.5658031088083</v>
+      </c>
+      <c r="H68" t="n">
+        <v>35.17443609022556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Parma Calcio 1913</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C69" t="n">
-        <v>25839</v>
+        <v>31516</v>
       </c>
       <c r="D69" t="n">
-        <v>11729</v>
+        <v>12214</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Liga Portugal</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G69" t="n">
+        <v>50.82745098039215</v>
+      </c>
+      <c r="H69" t="n">
+        <v>32.32598870056497</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RBL</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C70" t="n">
-        <v>22538</v>
+        <v>41015</v>
       </c>
       <c r="D70" t="n">
-        <v>7585</v>
+        <v>13926</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G70" t="n">
+        <v>59.10579710144928</v>
+      </c>
+      <c r="H70" t="n">
+        <v>38.37454545454545</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
-        <v>28837</v>
+        <v>36796</v>
       </c>
       <c r="D71" t="n">
-        <v>12142</v>
+        <v>15205</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G71" t="n">
+        <v>53.16831683168317</v>
+      </c>
+      <c r="H71" t="n">
+        <v>34.77203166226913</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C72" t="n">
-        <v>31732</v>
+        <v>27630</v>
       </c>
       <c r="D72" t="n">
-        <v>12247</v>
+        <v>12490</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F72" t="n">
         <v>10</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55.96024844720497</v>
+      </c>
+      <c r="H72" t="n">
+        <v>38.53685503685504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C73" t="n">
-        <v>36094</v>
+        <v>30368</v>
       </c>
       <c r="D73" t="n">
-        <v>11837</v>
+        <v>12881</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F73" t="n">
         <v>10</v>
+      </c>
+      <c r="G73" t="n">
+        <v>55.23464566929134</v>
+      </c>
+      <c r="H73" t="n">
+        <v>30.96931216931217</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C74" t="n">
-        <v>30358</v>
+        <v>35656</v>
       </c>
       <c r="D74" t="n">
-        <v>9763</v>
+        <v>17065</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Eredivisie</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G74" t="n">
+        <v>53.11729323308271</v>
+      </c>
+      <c r="H74" t="n">
+        <v>32.39665871121719</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C75" t="n">
-        <v>30374</v>
+        <v>29066</v>
       </c>
       <c r="D75" t="n">
-        <v>14158</v>
+        <v>12217</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G75" t="n">
+        <v>54.03333333333333</v>
+      </c>
+      <c r="H75" t="n">
+        <v>31.46868932038835</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C76" t="n">
-        <v>27264</v>
+        <v>27567</v>
       </c>
       <c r="D76" t="n">
-        <v>12719</v>
+        <v>12941</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G76" t="n">
+        <v>53.37678571428571</v>
+      </c>
+      <c r="H76" t="n">
+        <v>31.22252475247525</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C77" t="n">
-        <v>25468</v>
+        <v>3651</v>
       </c>
       <c r="D77" t="n">
-        <v>10918</v>
+        <v>2137</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>56.48992805755396</v>
+      </c>
+      <c r="H77" t="n">
+        <v>34.66155507559395</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C78" t="n">
-        <v>25772</v>
+        <v>35465</v>
       </c>
       <c r="D78" t="n">
-        <v>8306</v>
+        <v>12244</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2310,215 +2776,269 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G78" t="n">
+        <v>60.9728</v>
+      </c>
+      <c r="H78" t="n">
+        <v>37.13068493150685</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Saint-Etienne</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C79" t="n">
-        <v>25164</v>
+        <v>32546</v>
       </c>
       <c r="D79" t="n">
-        <v>12255</v>
+        <v>15962</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>53.99915254237288</v>
+      </c>
+      <c r="H79" t="n">
+        <v>33.12423469387755</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Istanbul Basaksehir</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C80" t="n">
-        <v>30070</v>
+        <v>30368</v>
       </c>
       <c r="D80" t="n">
-        <v>11276</v>
+        <v>10652</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F80" t="n">
         <v>10</v>
+      </c>
+      <c r="G80" t="n">
+        <v>56.19785714285714</v>
+      </c>
+      <c r="H80" t="n">
+        <v>33.28717948717949</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
-        <v>26253</v>
+        <v>37752</v>
       </c>
       <c r="D81" t="n">
-        <v>10163</v>
+        <v>11888</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G81" t="n">
+        <v>54.65433070866142</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34.20090909090909</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C82" t="n">
-        <v>23411</v>
+        <v>33091</v>
       </c>
       <c r="D82" t="n">
-        <v>10596</v>
+        <v>12188</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>53.90373134328358</v>
+      </c>
+      <c r="H82" t="n">
+        <v>35.69059633027523</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C83" t="n">
-        <v>25699</v>
+        <v>30968</v>
       </c>
       <c r="D83" t="n">
-        <v>11140</v>
+        <v>12018</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ligue 1</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G83" t="n">
+        <v>54.07099236641221</v>
+      </c>
+      <c r="H83" t="n">
+        <v>33.06538461538462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="C84" t="n">
-        <v>22753</v>
+        <v>33102</v>
       </c>
       <c r="D84" t="n">
-        <v>7548</v>
+        <v>15440</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Super Lig</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G84" t="n">
+        <v>58.33777777777778</v>
+      </c>
+      <c r="H84" t="n">
+        <v>34.78487584650113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C85" t="n">
-        <v>25660</v>
+        <v>38869</v>
       </c>
       <c r="D85" t="n">
-        <v>10621</v>
+        <v>14712</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>LaLiga</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G85" t="n">
+        <v>54.34928571428571</v>
+      </c>
+      <c r="H85" t="n">
+        <v>33.14388646288209</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C86" t="n">
-        <v>26040</v>
+        <v>34631</v>
       </c>
       <c r="D86" t="n">
-        <v>7544</v>
+        <v>13470</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Premier League</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G86" t="n">
+        <v>58.50294117647059</v>
+      </c>
+      <c r="H86" t="n">
+        <v>36.04281984334204</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C87" t="n">
-        <v>26542</v>
+        <v>32133</v>
       </c>
       <c r="D87" t="n">
-        <v>11305</v>
+        <v>16350</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2526,23 +3046,29 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G87" t="n">
+        <v>52.15877192982457</v>
+      </c>
+      <c r="H87" t="n">
+        <v>35.47605263157894</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C88" t="n">
-        <v>24752</v>
+        <v>33910</v>
       </c>
       <c r="D88" t="n">
-        <v>11592</v>
+        <v>16578</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2550,47 +3076,59 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G88" t="n">
+        <v>54.23852459016394</v>
+      </c>
+      <c r="H88" t="n">
+        <v>31.51467889908257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C89" t="n">
-        <v>22030</v>
+        <v>3665</v>
       </c>
       <c r="D89" t="n">
-        <v>10506</v>
+        <v>1946</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>57.515625</v>
+      </c>
+      <c r="H89" t="n">
+        <v>35.92527881040892</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C90" t="n">
-        <v>32092</v>
+        <v>37751</v>
       </c>
       <c r="D90" t="n">
-        <v>14299</v>
+        <v>17287</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2598,119 +3136,149 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G90" t="n">
+        <v>53.23037974683544</v>
+      </c>
+      <c r="H90" t="n">
+        <v>33.61378600823045</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C91" t="n">
-        <v>24593</v>
+        <v>31530</v>
       </c>
       <c r="D91" t="n">
-        <v>11747</v>
+        <v>13977</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>53.8646551724138</v>
+      </c>
+      <c r="H91" t="n">
+        <v>32.62334047109208</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C92" t="n">
-        <v>24849</v>
+        <v>30456</v>
       </c>
       <c r="D92" t="n">
-        <v>12494</v>
+        <v>11317</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Serie A</t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
+        <v>55.433125</v>
+      </c>
+      <c r="H92" t="n">
+        <v>38.09134860050891</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C93" t="n">
-        <v>32858</v>
+        <v>29948</v>
       </c>
       <c r="D93" t="n">
-        <v>15596</v>
+        <v>10367</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LaLiga</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G93" t="n">
+        <v>57.10493827160494</v>
+      </c>
+      <c r="H93" t="n">
+        <v>37.34888888888889</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C94" t="n">
-        <v>23051</v>
+        <v>33070</v>
       </c>
       <c r="D94" t="n">
-        <v>9629</v>
+        <v>11346</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>56.26583333333333</v>
+      </c>
+      <c r="H94" t="n">
+        <v>37.26169665809768</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C95" t="n">
-        <v>26835</v>
+        <v>33527</v>
       </c>
       <c r="D95" t="n">
-        <v>12389</v>
+        <v>11948</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2718,55 +3286,2443 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G95" t="n">
+        <v>58.54789915966386</v>
+      </c>
+      <c r="H95" t="n">
+        <v>34.70495867768595</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C96" t="n">
-        <v>20742</v>
+        <v>3140</v>
       </c>
       <c r="D96" t="n">
-        <v>10139</v>
+        <v>1668</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bundesliga</t>
+          <t>Championship</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>57.86666666666667</v>
+      </c>
+      <c r="H96" t="n">
+        <v>35.37269155206287</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>123</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31192</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11315</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" t="n">
+        <v>56.12032520325204</v>
+      </c>
+      <c r="H97" t="n">
+        <v>36.81662049861496</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>111</v>
+      </c>
+      <c r="C98" t="n">
+        <v>27165</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11608</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>52.87387387387388</v>
+      </c>
+      <c r="H98" t="n">
+        <v>33.49154228855721</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>141</v>
+      </c>
+      <c r="C99" t="n">
+        <v>37051</v>
+      </c>
+      <c r="D99" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>12</v>
+      </c>
+      <c r="G99" t="n">
+        <v>57.10851063829787</v>
+      </c>
+      <c r="H99" t="n">
+        <v>32.64932432432433</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>65</v>
+      </c>
+      <c r="C100" t="n">
+        <v>36641</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10220</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" t="n">
+        <v>66.77846153846154</v>
+      </c>
+      <c r="H100" t="n">
+        <v>42.47644927536232</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>113</v>
+      </c>
+      <c r="C101" t="n">
+        <v>33960</v>
+      </c>
+      <c r="D101" t="n">
+        <v>13714</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" t="n">
+        <v>50.86017699115044</v>
+      </c>
+      <c r="H101" t="n">
+        <v>35.96941176470588</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>107</v>
+      </c>
+      <c r="C102" t="n">
+        <v>34435</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11945</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>54.53457943925233</v>
+      </c>
+      <c r="H102" t="n">
+        <v>34.10537974683544</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>118</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3718</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1973</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>56.50169491525423</v>
+      </c>
+      <c r="H103" t="n">
+        <v>34.7662037037037</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>172</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2258</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>56.11162790697675</v>
+      </c>
+      <c r="H104" t="n">
+        <v>33.93291814946619</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>131</v>
+      </c>
+      <c r="C105" t="n">
+        <v>30274</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9503</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>58.21221374045802</v>
+      </c>
+      <c r="H105" t="n">
+        <v>37.95174825174825</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>126</v>
+      </c>
+      <c r="C106" t="n">
+        <v>31900</v>
+      </c>
+      <c r="D106" t="n">
+        <v>13837</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>35.57635467980295</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>161</v>
+      </c>
+      <c r="C107" t="n">
+        <v>35112</v>
+      </c>
+      <c r="D107" t="n">
+        <v>16195</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>11</v>
+      </c>
+      <c r="G107" t="n">
+        <v>51.73167701863353</v>
+      </c>
+      <c r="H107" t="n">
+        <v>32.47330210772834</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>141</v>
+      </c>
+      <c r="C108" t="n">
+        <v>30556</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13407</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>53.56595744680851</v>
+      </c>
+      <c r="H108" t="n">
+        <v>33.74413145539906</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>36050</v>
+      </c>
+      <c r="D109" t="n">
+        <v>17141</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>11</v>
+      </c>
+      <c r="G109" t="n">
+        <v>52.54018691588785</v>
+      </c>
+      <c r="H109" t="n">
+        <v>30.37340659340659</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>117</v>
+      </c>
+      <c r="C110" t="n">
+        <v>36567</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15164</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>53.65726495726496</v>
+      </c>
+      <c r="H110" t="n">
+        <v>33.08201284796574</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>124</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25936</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11310</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>9</v>
+      </c>
+      <c r="G111" t="n">
+        <v>55.69032258064517</v>
+      </c>
+      <c r="H111" t="n">
+        <v>30.91546961325967</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>122</v>
+      </c>
+      <c r="C112" t="n">
+        <v>33521</v>
+      </c>
+      <c r="D112" t="n">
+        <v>16724</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="n">
+        <v>50.4155737704918</v>
+      </c>
+      <c r="H112" t="n">
+        <v>33.3919315403423</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>124</v>
+      </c>
+      <c r="C113" t="n">
+        <v>36229</v>
+      </c>
+      <c r="D113" t="n">
+        <v>16093</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>55.47338709677419</v>
+      </c>
+      <c r="H113" t="n">
+        <v>36.40358974358974</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>118</v>
+      </c>
+      <c r="C114" t="n">
+        <v>31912</v>
+      </c>
+      <c r="D114" t="n">
+        <v>13697</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>58.29915254237288</v>
+      </c>
+      <c r="H114" t="n">
+        <v>35.59441489361702</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>97</v>
+      </c>
+      <c r="C115" t="n">
+        <v>33354</v>
+      </c>
+      <c r="D115" t="n">
+        <v>14570</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>57.40206185567011</v>
+      </c>
+      <c r="H115" t="n">
+        <v>34.65011990407674</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>152</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3715</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>52.3453947368421</v>
+      </c>
+      <c r="H116" t="n">
+        <v>34.94624505928854</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>109</v>
+      </c>
+      <c r="C117" t="n">
+        <v>32128</v>
+      </c>
+      <c r="D117" t="n">
+        <v>16171</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>53.02935779816514</v>
+      </c>
+      <c r="H117" t="n">
+        <v>32.19445910290238</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>163</v>
+      </c>
+      <c r="C118" t="n">
+        <v>35367</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15814</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>12</v>
+      </c>
+      <c r="G118" t="n">
+        <v>54.33803680981595</v>
+      </c>
+      <c r="H118" t="n">
+        <v>35.14588235294118</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oxford</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>121</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3476</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1953</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>52.0099173553719</v>
+      </c>
+      <c r="H119" t="n">
+        <v>32.62504604051566</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>131</v>
+      </c>
+      <c r="C120" t="n">
+        <v>36385</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15706</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>11</v>
+      </c>
+      <c r="G120" t="n">
+        <v>52.56259541984733</v>
+      </c>
+      <c r="H120" t="n">
+        <v>33.63279352226721</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>81</v>
+      </c>
+      <c r="C121" t="n">
+        <v>36024</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9152</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
+      </c>
+      <c r="G121" t="n">
+        <v>56.50740740740741</v>
+      </c>
+      <c r="H121" t="n">
+        <v>39.52970822281167</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>89</v>
+      </c>
+      <c r="C122" t="n">
+        <v>38365</v>
+      </c>
+      <c r="D122" t="n">
+        <v>8474</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>61.02921348314607</v>
+      </c>
+      <c r="H122" t="n">
+        <v>37.50594594594595</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Parma Calcio 1913</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>107</v>
+      </c>
+      <c r="C123" t="n">
+        <v>35681</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15849</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>11</v>
+      </c>
+      <c r="G123" t="n">
+        <v>55.49813084112149</v>
+      </c>
+      <c r="H123" t="n">
+        <v>32.37272727272727</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>144</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3536</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>51.9875</v>
+      </c>
+      <c r="H124" t="n">
+        <v>32.52784090909091</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>135</v>
+      </c>
+      <c r="C125" t="n">
+        <v>31707</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9592</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="n">
+        <v>59.84666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>40.11988130563798</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>157</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3285</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>55.34713375796179</v>
+      </c>
+      <c r="H126" t="n">
+        <v>33.69946236559139</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>184</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3161</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>51.83369565217391</v>
+      </c>
+      <c r="H127" t="n">
+        <v>34.95966228893058</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>124</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2235</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>54.25241935483871</v>
+      </c>
+      <c r="H128" t="n">
+        <v>32.58846918489066</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RBL</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>90</v>
+      </c>
+      <c r="C129" t="n">
+        <v>29409</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10858</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>52.86444444444444</v>
+      </c>
+      <c r="H129" t="n">
+        <v>34.88909952606635</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>106</v>
+      </c>
+      <c r="C130" t="n">
+        <v>37223</v>
+      </c>
+      <c r="D130" t="n">
+        <v>19062</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>53.05471698113207</v>
+      </c>
+      <c r="H130" t="n">
+        <v>29.67924050632911</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>160</v>
+      </c>
+      <c r="C131" t="n">
+        <v>31727</v>
+      </c>
+      <c r="D131" t="n">
+        <v>13205</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>11</v>
+      </c>
+      <c r="G131" t="n">
+        <v>55.17625</v>
+      </c>
+      <c r="H131" t="n">
+        <v>33.24800884955752</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>138</v>
+      </c>
+      <c r="C132" t="n">
+        <v>38505</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15052</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>12</v>
+      </c>
+      <c r="G132" t="n">
+        <v>57.26594202898551</v>
+      </c>
+      <c r="H132" t="n">
+        <v>35.67884615384615</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>107</v>
+      </c>
+      <c r="C133" t="n">
+        <v>38945</v>
+      </c>
+      <c r="D133" t="n">
+        <v>13143</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>11</v>
+      </c>
+      <c r="G133" t="n">
+        <v>58.71588785046729</v>
+      </c>
+      <c r="H133" t="n">
+        <v>33.22375366568915</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>147</v>
+      </c>
+      <c r="C134" t="n">
+        <v>36579</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11632</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>12</v>
+      </c>
+      <c r="G134" t="n">
+        <v>56.64897959183673</v>
+      </c>
+      <c r="H134" t="n">
+        <v>35.21374501992032</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>167</v>
+      </c>
+      <c r="C135" t="n">
+        <v>36384</v>
+      </c>
+      <c r="D135" t="n">
+        <v>16652</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>12</v>
+      </c>
+      <c r="G135" t="n">
+        <v>52.84311377245508</v>
+      </c>
+      <c r="H135" t="n">
+        <v>31.52410147991543</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>108</v>
+      </c>
+      <c r="C136" t="n">
+        <v>33310</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14944</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>32.85162162162163</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>130</v>
+      </c>
+      <c r="C137" t="n">
+        <v>32094</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12921</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>60.52923076923077</v>
+      </c>
+      <c r="H137" t="n">
+        <v>36.94019607843137</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>131</v>
+      </c>
+      <c r="C138" t="n">
+        <v>31047</v>
+      </c>
+      <c r="D138" t="n">
+        <v>13225</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>56.93129770992366</v>
+      </c>
+      <c r="H138" t="n">
+        <v>34.49711286089239</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>132</v>
+      </c>
+      <c r="C139" t="n">
+        <v>31322</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11192</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>58.28636363636364</v>
+      </c>
+      <c r="H139" t="n">
+        <v>34.74649859943978</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>120</v>
+      </c>
+      <c r="C140" t="n">
+        <v>35682</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11538</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>53.58166666666667</v>
+      </c>
+      <c r="H140" t="n">
+        <v>39.04383954154728</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SC Heerenveen</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>138</v>
+      </c>
+      <c r="C141" t="n">
+        <v>36670</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12406</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>11</v>
+      </c>
+      <c r="G141" t="n">
+        <v>56.58550724637681</v>
+      </c>
+      <c r="H141" t="n">
+        <v>37.89223946784923</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Saint-Etienne</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>133</v>
+      </c>
+      <c r="C142" t="n">
+        <v>32381</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15477</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>53.48721804511278</v>
+      </c>
+      <c r="H142" t="n">
+        <v>33.08439897698209</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>124</v>
+      </c>
+      <c r="C143" t="n">
+        <v>33905</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13313</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>11</v>
+      </c>
+      <c r="G143" t="n">
+        <v>55.74274193548387</v>
+      </c>
+      <c r="H143" t="n">
+        <v>34.86718403547672</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>149</v>
+      </c>
+      <c r="C144" t="n">
+        <v>29285</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11801</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>55.83489932885906</v>
+      </c>
+      <c r="H144" t="n">
+        <v>36.72189973614775</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="n">
+        <v>36321</v>
+      </c>
+      <c r="D145" t="n">
+        <v>13555</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" t="n">
+        <v>49.85833333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>32.96871035940804</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sheff Utd</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>154</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3718</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2137</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>58.05649350649351</v>
+      </c>
+      <c r="H146" t="n">
+        <v>32.8084</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sheff Wed</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>155</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1428</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>56.20387096774193</v>
+      </c>
+      <c r="H147" t="n">
+        <v>35.32034548944338</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>123</v>
+      </c>
+      <c r="C148" t="n">
+        <v>32665</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15292</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>11</v>
+      </c>
+      <c r="G148" t="n">
+        <v>57.0390243902439</v>
+      </c>
+      <c r="H148" t="n">
+        <v>32.66403061224489</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>117</v>
+      </c>
+      <c r="C149" t="n">
+        <v>33213</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13206</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>50.15470085470086</v>
+      </c>
+      <c r="H149" t="n">
+        <v>33.52695652173913</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>101</v>
+      </c>
+      <c r="C150" t="n">
+        <v>37587</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13442</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>11</v>
+      </c>
+      <c r="G150" t="n">
+        <v>51.73168316831683</v>
+      </c>
+      <c r="H150" t="n">
+        <v>32.89439655172414</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sporting</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>99</v>
+      </c>
+      <c r="C151" t="n">
+        <v>32564</v>
+      </c>
+      <c r="D151" t="n">
+        <v>8809</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>10</v>
+      </c>
+      <c r="G151" t="n">
+        <v>60.1989898989899</v>
+      </c>
+      <c r="H151" t="n">
+        <v>42.47244897959184</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>92</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30161</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13879</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>9</v>
+      </c>
+      <c r="G152" t="n">
+        <v>56.77934782608695</v>
+      </c>
+      <c r="H152" t="n">
+        <v>35.0221052631579</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>149</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3561</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1537</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>57.49463087248323</v>
+      </c>
+      <c r="H153" t="n">
+        <v>35.03348729792148</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>117</v>
+      </c>
+      <c r="C154" t="n">
+        <v>32779</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13614</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>61.65299145299145</v>
+      </c>
+      <c r="H154" t="n">
+        <v>36.16125</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>87</v>
+      </c>
+      <c r="C155" t="n">
+        <v>28935</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9849</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>9</v>
+      </c>
+      <c r="G155" t="n">
+        <v>55.50919540229885</v>
+      </c>
+      <c r="H155" t="n">
+        <v>35.2503125</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>130</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3514</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1984</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>54.70461538461539</v>
+      </c>
+      <c r="H156" t="n">
+        <v>33.25415094339623</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>124</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3372</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>58.39032258064516</v>
+      </c>
+      <c r="H157" t="n">
+        <v>37.36073619631902</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>124</v>
+      </c>
+      <c r="C158" t="n">
+        <v>35864</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15332</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>11</v>
+      </c>
+      <c r="G158" t="n">
+        <v>56.10887096774194</v>
+      </c>
+      <c r="H158" t="n">
+        <v>33.36070460704607</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>120</v>
+      </c>
+      <c r="C159" t="n">
+        <v>32009</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9360</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>10</v>
+      </c>
+      <c r="G159" t="n">
+        <v>56.22083333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>38.97174447174447</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>139</v>
+      </c>
+      <c r="C160" t="n">
+        <v>33011</v>
+      </c>
+      <c r="D160" t="n">
+        <v>14035</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Ligue 1</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>57.01007194244604</v>
+      </c>
+      <c r="H160" t="n">
+        <v>36.65418604651163</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>128</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29505</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9410</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Super Lig</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>55.259375</v>
+      </c>
+      <c r="H161" t="n">
+        <v>34.70862068965517</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>114</v>
+      </c>
+      <c r="C162" t="n">
+        <v>36688</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12097</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>11</v>
+      </c>
+      <c r="G162" t="n">
+        <v>53.00877192982456</v>
+      </c>
+      <c r="H162" t="n">
+        <v>35.51990407673861</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>150</v>
+      </c>
+      <c r="C163" t="n">
+        <v>34061</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15450</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>11</v>
+      </c>
+      <c r="G163" t="n">
+        <v>57.22866666666666</v>
+      </c>
+      <c r="H163" t="n">
+        <v>34.88920308483291</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>119</v>
+      </c>
+      <c r="C164" t="n">
+        <v>28804</v>
+      </c>
+      <c r="D164" t="n">
+        <v>14226</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>9</v>
+      </c>
+      <c r="G164" t="n">
+        <v>56.23697478991596</v>
+      </c>
+      <c r="H164" t="n">
+        <v>33.59860724233983</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>128</v>
+      </c>
+      <c r="C165" t="n">
+        <v>34554</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15544</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>11</v>
+      </c>
+      <c r="G165" t="n">
+        <v>57.75078125</v>
+      </c>
+      <c r="H165" t="n">
+        <v>34.95574162679426</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>127</v>
+      </c>
+      <c r="C166" t="n">
+        <v>33600</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15289</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>11</v>
+      </c>
+      <c r="G166" t="n">
+        <v>54.56220472440945</v>
+      </c>
+      <c r="H166" t="n">
+        <v>33.38495145631068</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>146</v>
+      </c>
+      <c r="C167" t="n">
+        <v>34297</v>
+      </c>
+      <c r="D167" t="n">
+        <v>17697</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Serie A</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>51.67808219178082</v>
+      </c>
+      <c r="H167" t="n">
+        <v>34.40426540284361</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>123</v>
+      </c>
+      <c r="C168" t="n">
+        <v>36188</v>
+      </c>
+      <c r="D168" t="n">
+        <v>16923</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>LaLiga</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>11</v>
+      </c>
+      <c r="G168" t="n">
+        <v>54.50975609756097</v>
+      </c>
+      <c r="H168" t="n">
+        <v>32.07109375</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Vitoria de Guimaraes</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>138</v>
+      </c>
+      <c r="C169" t="n">
+        <v>29573</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10965</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Liga Portugal</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>10</v>
+      </c>
+      <c r="G169" t="n">
+        <v>57.38405797101449</v>
+      </c>
+      <c r="H169" t="n">
+        <v>36.18861111111111</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>123</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3604</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2258</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>58.1520325203252</v>
+      </c>
+      <c r="H170" t="n">
+        <v>34.14432548179872</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>159</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3373</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>53.51320754716981</v>
+      </c>
+      <c r="H171" t="n">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>86</v>
+      </c>
+      <c r="C172" t="n">
+        <v>29895</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12520</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>9</v>
+      </c>
+      <c r="G172" t="n">
+        <v>55.82325581395349</v>
+      </c>
+      <c r="H172" t="n">
+        <v>34.49673202614379</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>133</v>
+      </c>
+      <c r="C173" t="n">
+        <v>33154</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15267</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Premier League</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>10</v>
+      </c>
+      <c r="G173" t="n">
+        <v>53.24436090225564</v>
+      </c>
+      <c r="H173" t="n">
+        <v>33.13821138211382</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>123</v>
+      </c>
+      <c r="C174" t="n">
+        <v>37743</v>
+      </c>
+      <c r="D174" t="n">
+        <v>18246</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Eredivisie</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>11</v>
+      </c>
+      <c r="G174" t="n">
+        <v>52.17967479674797</v>
+      </c>
+      <c r="H174" t="n">
+        <v>33.39144144144144</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>111</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27323</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12301</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Bundesliga</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>9</v>
+      </c>
+      <c r="G175" t="n">
+        <v>53.84234234234234</v>
+      </c>
+      <c r="H175" t="n">
+        <v>34.54093567251462</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>Wolves</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>110</v>
-      </c>
-      <c r="C97" t="n">
-        <v>25244</v>
-      </c>
-      <c r="D97" t="n">
-        <v>11863</v>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="B176" t="n">
+        <v>127</v>
+      </c>
+      <c r="C176" t="n">
+        <v>32013</v>
+      </c>
+      <c r="D176" t="n">
+        <v>14578</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>Premier League</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>8</v>
+      <c r="F176" t="n">
+        <v>10</v>
+      </c>
+      <c r="G176" t="n">
+        <v>49.72362204724409</v>
+      </c>
+      <c r="H176" t="n">
+        <v>31.55477855477855</v>
       </c>
     </row>
   </sheetData>
